--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,244 +62,262 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.821+/-0.003</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.9+/-0.006</t>
-  </si>
-  <si>
-    <t>0.755+/-0.026</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.819+/-0.003</t>
+  </si>
+  <si>
+    <t>0.749+/-0.0</t>
   </si>
   <si>
     <t>0.756</t>
   </si>
   <si>
-    <t>0.596+/-0.012</t>
-  </si>
-  <si>
-    <t>0.473+/-0.023</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>10.695+/-0.502</t>
-  </si>
-  <si>
-    <t>0.699+/-0.002</t>
-  </si>
-  <si>
-    <t>0.681+/-0.0</t>
+    <t>0.925+/-0.003</t>
+  </si>
+  <si>
+    <t>0.803+/-0.027</t>
+  </si>
+  <si>
+    <t>0.818</t>
+  </si>
+  <si>
+    <t>0.573+/-0.01</t>
+  </si>
+  <si>
+    <t>0.452+/-0.027</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>7.538+/-0.255</t>
+  </si>
+  <si>
+    <t>0.712+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.666+/-0.004</t>
+  </si>
+  <si>
+    <t>0.634+/-0.021</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.49+/-0.007</t>
+  </si>
+  <si>
+    <t>0.468+/-0.034</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>1.537+/-0.074</t>
+  </si>
+  <si>
+    <t>0.784+/-0.003</t>
+  </si>
+  <si>
+    <t>0.747+/-0.0</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.798+/-0.005</t>
+  </si>
+  <si>
+    <t>0.731+/-0.023</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.579+/-0.008</t>
+  </si>
+  <si>
+    <t>0.531+/-0.033</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>6.423+/-0.617</t>
+  </si>
+  <si>
+    <t>0.688+/-0.004</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.938+/-0.004</t>
+  </si>
+  <si>
+    <t>0.876+/-0.055</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.193+/-0.011</t>
+  </si>
+  <si>
+    <t>0.164+/-0.012</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.687+/-0.018</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.88+/-0.001</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.955+/-0.006</t>
+  </si>
+  <si>
+    <t>0.722+/-0.05</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.415+/-0.006</t>
+  </si>
+  <si>
+    <t>0.286+/-0.019</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>8.384+/-0.127</t>
+  </si>
+  <si>
+    <t>0.824+/-0.001</t>
+  </si>
+  <si>
+    <t>0.818+/-0.0</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>0.627+/-0.005</t>
+  </si>
+  <si>
+    <t>0.597+/-0.04</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.278+/-0.009</t>
+  </si>
+  <si>
+    <t>0.26+/-0.025</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>1.316+/-0.046</t>
+  </si>
+  <si>
+    <t>0.854+/-0.002</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.787+/-0.006</t>
+  </si>
+  <si>
+    <t>0.653+/-0.051</t>
   </si>
   <si>
     <t>0.683</t>
   </si>
   <si>
-    <t>0.65+/-0.006</t>
-  </si>
-  <si>
-    <t>0.616+/-0.021</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.453+/-0.008</t>
-  </si>
-  <si>
-    <t>0.435+/-0.032</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>1.978+/-0.137</t>
-  </si>
-  <si>
-    <t>0.78+/-0.004</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.787+/-0.005</t>
-  </si>
-  <si>
-    <t>0.707+/-0.019</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.58+/-0.011</t>
-  </si>
-  <si>
-    <t>0.518+/-0.026</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>6.244+/-0.545</t>
-  </si>
-  <si>
-    <t>0.689+/-0.002</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.906+/-0.008</t>
-  </si>
-  <si>
-    <t>0.821+/-0.044</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.204+/-0.007</t>
-  </si>
-  <si>
-    <t>0.172+/-0.017</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>1.237+/-0.173</t>
-  </si>
-  <si>
-    <t>0.88+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.957+/-0.005</t>
-  </si>
-  <si>
-    <t>0.719+/-0.042</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.413+/-0.004</t>
-  </si>
-  <si>
-    <t>0.281+/-0.021</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>10.263+/-0.739</t>
-  </si>
-  <si>
-    <t>0.824+/-0.001</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.627+/-0.006</t>
-  </si>
-  <si>
-    <t>0.597+/-0.039</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.275+/-0.012</t>
-  </si>
-  <si>
-    <t>0.259+/-0.027</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>1.748+/-0.171</t>
-  </si>
-  <si>
-    <t>0.854+/-0.001</t>
-  </si>
-  <si>
-    <t>0.828+/-0.0</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.783+/-0.007</t>
-  </si>
-  <si>
-    <t>0.653+/-0.046</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.366+/-0.009</t>
-  </si>
-  <si>
-    <t>0.292+/-0.019</t>
+    <t>0.362+/-0.009</t>
+  </si>
+  <si>
+    <t>0.284+/-0.025</t>
   </si>
   <si>
     <t>0.333</t>
   </si>
   <si>
-    <t>6.08+/-0.352</t>
-  </si>
-  <si>
-    <t>0.812+/-0.002</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.961+/-0.013</t>
-  </si>
-  <si>
-    <t>0.897+/-0.116</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.054+/-0.009</t>
-  </si>
-  <si>
-    <t>0.038+/-0.011</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>1.16+/-0.05</t>
+    <t>5.176+/-0.147</t>
+  </si>
+  <si>
+    <t>0.814+/-0.002</t>
+  </si>
+  <si>
+    <t>0.81+/-0.0</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.952+/-0.011</t>
+  </si>
+  <si>
+    <t>0.91+/-0.077</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.069+/-0.012</t>
+  </si>
+  <si>
+    <t>0.047+/-0.015</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.682+/-0.022</t>
   </si>
 </sst>
 </file>
@@ -688,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.6189445196211096</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -705,19 +723,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.6189445196211096</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -725,19 +743,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -745,19 +763,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -765,19 +783,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -785,19 +803,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -805,19 +823,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -825,19 +843,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -845,19 +863,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -865,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -915,19 +933,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>0.8014433919711321</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -935,19 +953,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>0.8014433919711321</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -955,19 +973,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -975,19 +993,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -995,19 +1013,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1015,19 +1033,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1035,19 +1053,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1055,19 +1073,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1075,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1095,19 +1113,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -74,124 +74,127 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.819+/-0.003</t>
-  </si>
-  <si>
-    <t>0.749+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.925+/-0.003</t>
-  </si>
-  <si>
-    <t>0.803+/-0.027</t>
-  </si>
-  <si>
-    <t>0.818</t>
-  </si>
-  <si>
-    <t>0.573+/-0.01</t>
-  </si>
-  <si>
-    <t>0.452+/-0.027</t>
-  </si>
-  <si>
-    <t>0.463</t>
-  </si>
-  <si>
-    <t>7.538+/-0.255</t>
-  </si>
-  <si>
-    <t>0.712+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.666+/-0.004</t>
-  </si>
-  <si>
-    <t>0.634+/-0.021</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.49+/-0.007</t>
-  </si>
-  <si>
-    <t>0.468+/-0.034</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>1.537+/-0.074</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.798+/-0.005</t>
-  </si>
-  <si>
-    <t>0.731+/-0.023</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.579+/-0.008</t>
-  </si>
-  <si>
-    <t>0.531+/-0.033</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>6.423+/-0.617</t>
-  </si>
-  <si>
-    <t>0.688+/-0.004</t>
-  </si>
-  <si>
-    <t>0.672+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.938+/-0.004</t>
-  </si>
-  <si>
-    <t>0.876+/-0.055</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.193+/-0.011</t>
-  </si>
-  <si>
-    <t>0.164+/-0.012</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.687+/-0.018</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.908+/-0.006</t>
+  </si>
+  <si>
+    <t>0.755+/-0.021</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.591+/-0.012</t>
+  </si>
+  <si>
+    <t>0.464+/-0.022</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>11.196+/-0.511</t>
+  </si>
+  <si>
+    <t>0.698+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.651+/-0.007</t>
+  </si>
+  <si>
+    <t>0.619+/-0.023</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.45+/-0.011</t>
+  </si>
+  <si>
+    <t>0.431+/-0.026</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>1.592+/-0.163</t>
+  </si>
+  <si>
+    <t>0.78+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.785+/-0.005</t>
+  </si>
+  <si>
+    <t>0.704+/-0.022</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.584+/-0.009</t>
+  </si>
+  <si>
+    <t>0.515+/-0.024</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>5.868+/-0.089</t>
+  </si>
+  <si>
+    <t>0.686+/-0.003</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.918+/-0.008</t>
+  </si>
+  <si>
+    <t>0.842+/-0.044</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.194+/-0.008</t>
+  </si>
+  <si>
+    <t>0.161+/-0.017</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.851+/-0.035</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -206,28 +209,28 @@
     <t>0.836+/-0.0</t>
   </si>
   <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.955+/-0.006</t>
-  </si>
-  <si>
-    <t>0.722+/-0.05</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.415+/-0.006</t>
-  </si>
-  <si>
-    <t>0.286+/-0.019</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>8.384+/-0.127</t>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.957+/-0.005</t>
+  </si>
+  <si>
+    <t>0.723+/-0.045</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.413+/-0.005</t>
+  </si>
+  <si>
+    <t>0.284+/-0.019</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>10.216+/-0.506</t>
   </si>
   <si>
     <t>0.824+/-0.001</t>
@@ -239,85 +242,85 @@
     <t>0.825</t>
   </si>
   <si>
-    <t>0.627+/-0.005</t>
-  </si>
-  <si>
-    <t>0.597+/-0.04</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.278+/-0.009</t>
-  </si>
-  <si>
-    <t>0.26+/-0.025</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>1.316+/-0.046</t>
-  </si>
-  <si>
-    <t>0.854+/-0.002</t>
+    <t>0.627+/-0.006</t>
+  </si>
+  <si>
+    <t>0.597+/-0.039</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.275+/-0.012</t>
+  </si>
+  <si>
+    <t>0.259+/-0.027</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>1.85+/-0.078</t>
+  </si>
+  <si>
+    <t>0.854+/-0.001</t>
   </si>
   <si>
     <t>0.828+/-0.0</t>
   </si>
   <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.787+/-0.006</t>
-  </si>
-  <si>
-    <t>0.653+/-0.051</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.362+/-0.009</t>
-  </si>
-  <si>
-    <t>0.284+/-0.025</t>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>0.783+/-0.007</t>
+  </si>
+  <si>
+    <t>0.653+/-0.046</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.366+/-0.009</t>
+  </si>
+  <si>
+    <t>0.291+/-0.02</t>
   </si>
   <si>
     <t>0.333</t>
   </si>
   <si>
-    <t>5.176+/-0.147</t>
-  </si>
-  <si>
-    <t>0.814+/-0.002</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.952+/-0.011</t>
-  </si>
-  <si>
-    <t>0.91+/-0.077</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.069+/-0.012</t>
-  </si>
-  <si>
-    <t>0.047+/-0.015</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.682+/-0.022</t>
+    <t>6.806+/-0.579</t>
+  </si>
+  <si>
+    <t>0.813+/-0.002</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.969+/-0.011</t>
+  </si>
+  <si>
+    <t>0.899+/-0.105</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.06+/-0.009</t>
+  </si>
+  <si>
+    <t>0.035+/-0.011</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.969+/-0.03</t>
   </si>
 </sst>
 </file>
@@ -706,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -726,16 +729,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -746,16 +749,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -766,16 +769,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -786,16 +789,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -806,16 +809,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -826,16 +829,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -846,16 +849,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -866,16 +869,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -883,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -933,19 +936,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -953,19 +956,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -973,19 +976,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -996,16 +999,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1016,16 +1019,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1036,16 +1039,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1056,16 +1059,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1076,16 +1079,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1096,16 +1099,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1116,16 +1119,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
